--- a/example/data_file/Telco-Customer-Churn-数据字典.xlsx
+++ b/example/data_file/Telco-Customer-Churn-数据字典.xlsx
@@ -4,24 +4,192 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13308" windowHeight="8915"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>含义</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>数据量</t>
+  </si>
+  <si>
+    <t>缺失率</t>
+  </si>
+  <si>
+    <t>唯一值</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>customerID</t>
+  </si>
+  <si>
+    <t>客户ID</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>SeniorCitizen</t>
+  </si>
+  <si>
+    <t>是否为老年人</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>是否单身</t>
+  </si>
+  <si>
+    <t>Dependents</t>
+  </si>
+  <si>
+    <t>经济是否独立</t>
+  </si>
+  <si>
+    <t>tenure</t>
+  </si>
+  <si>
+    <t>已使用月份数</t>
+  </si>
+  <si>
+    <t>PhoneService</t>
+  </si>
+  <si>
+    <t>电话业务</t>
+  </si>
+  <si>
+    <t>MultipleLines</t>
+  </si>
+  <si>
+    <t>多线业务</t>
+  </si>
+  <si>
+    <t>InternetService</t>
+  </si>
+  <si>
+    <t>网络服务业务</t>
+  </si>
+  <si>
+    <t>OnlineSecurity</t>
+  </si>
+  <si>
+    <t>网络安全业务</t>
+  </si>
+  <si>
+    <t>OnlineBackup</t>
+  </si>
+  <si>
+    <t>网络备份业务</t>
+  </si>
+  <si>
+    <t>DeviceProtection</t>
+  </si>
+  <si>
+    <t>设备保护业务</t>
+  </si>
+  <si>
+    <t>TechSupport</t>
+  </si>
+  <si>
+    <t>技术支持业务</t>
+  </si>
+  <si>
+    <t>StreamingTV</t>
+  </si>
+  <si>
+    <t>网络电视业务</t>
+  </si>
+  <si>
+    <t>StreamingMovies</t>
+  </si>
+  <si>
+    <t>网络电影业务</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>合作方式</t>
+  </si>
+  <si>
+    <t>PaperlessBilling</t>
+  </si>
+  <si>
+    <t>电子账单</t>
+  </si>
+  <si>
+    <t>PaymentMethod</t>
+  </si>
+  <si>
+    <t>支付方式</t>
+  </si>
+  <si>
+    <t>MonthlyCharges</t>
+  </si>
+  <si>
+    <t>月费用</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
+    <t>TotalCharges</t>
+  </si>
+  <si>
+    <t>总费用</t>
+  </si>
+  <si>
+    <t>类型异常</t>
+  </si>
+  <si>
+    <t>Churn</t>
+  </si>
+  <si>
+    <t>客户是否流失</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,15 +199,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -48,29 +223,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,14 +242,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -105,8 +249,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,17 +294,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,6 +310,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -152,29 +325,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,192 +366,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -377,65 +566,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,15 +598,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -474,6 +606,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -482,10 +686,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -494,138 +698,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,14 +1169,932 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="6.33333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="9.44444444444444" customWidth="1"/>
+    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" customHeight="1" spans="1:8">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5">
+        <v>7043</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>7043</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" ht="17.6" customHeight="1" spans="1:8">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5">
+        <v>7043</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" ht="17.6" customHeight="1" spans="1:8">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5">
+        <v>7043</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" ht="17.6" customHeight="1" spans="1:8">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>7043</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" ht="17.6" customHeight="1" spans="1:8">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5">
+        <v>7043</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" ht="17.6" customHeight="1" spans="1:8">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5">
+        <v>7043</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>73</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" ht="17.6" customHeight="1" spans="1:8">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5">
+        <v>7043</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" ht="17.6" customHeight="1" spans="1:8">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5">
+        <v>7043</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" ht="17.6" customHeight="1" spans="1:8">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>7043</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" ht="17.6" customHeight="1" spans="1:8">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5">
+        <v>7043</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" ht="17.6" customHeight="1" spans="1:8">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5">
+        <v>7043</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" ht="17.6" customHeight="1" spans="1:8">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5">
+        <v>7043</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" ht="17.6" customHeight="1" spans="1:8">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5">
+        <v>7043</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" ht="17.6" customHeight="1" spans="1:8">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5">
+        <v>7043</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" ht="17.6" customHeight="1" spans="1:8">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5">
+        <v>7043</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" ht="17.6" customHeight="1" spans="1:8">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5">
+        <v>7043</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>3</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" ht="17.6" customHeight="1" spans="1:8">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5">
+        <v>7043</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" ht="17.6" customHeight="1" spans="1:8">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="5">
+        <v>7043</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>4</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" ht="17.6" customHeight="1" spans="1:8">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="5">
+        <v>7043</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1585</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" ht="17.6" customHeight="1" spans="1:8">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="5">
+        <v>7043</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>6531</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" ht="17.6" customHeight="1" spans="1:8">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5">
+        <v>7043</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="18.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>7043</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>7043</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>7043</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>7043</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>7043</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>7043</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>7043</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>7043</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>7043</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>7043</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>7043</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>7043</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>7043</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>7043</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>7043</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>7043</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>7043</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>7043</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>7043</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>7043</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>7043</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>6531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>7043</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
